--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3978,6 +3978,43 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4015,6 +4015,43 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,6 +4052,43 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4089,6 +4089,43 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4126,6 +4126,43 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,6 +4163,43 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4200,6 +4200,43 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4237,6 +4237,43 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4274,6 +4274,43 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4311,6 +4311,43 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4348,6 +4348,43 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,6 +4385,43 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4422,6 +4422,80 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4496,6 +4496,80 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +4570,43 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4607,6 +4607,43 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4644,6 +4644,43 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4681,6 +4681,43 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4718,6 +4718,80 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4792,6 +4792,43 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,6 +4829,43 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2177,11 +2177,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1574985600</v>
+        <v>1574294400</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2195,30 +2195,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F50" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="G50" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="H50" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.15</v>
+      </c>
+      <c r="I50" t="n">
+        <v>37000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1575244800</v>
+        <v>1574985600</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2251,11 +2249,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1575331200</v>
+        <v>1575244800</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2269,28 +2267,30 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="G52" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="H52" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="I52" t="n">
-        <v>80000</v>
+        <v>0.145</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1575417600</v>
+        <v>1575331200</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2304,28 +2304,28 @@
         </is>
       </c>
       <c r="E53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.155</v>
       </c>
-      <c r="F53" t="n">
-        <v>0.16</v>
-      </c>
       <c r="G53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.155</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I53" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1575504000</v>
+        <v>1575417600</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2339,30 +2339,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="F54" t="n">
         <v>0.16</v>
       </c>
       <c r="G54" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="H54" t="n">
         <v>0.16</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I54" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1575590400</v>
+        <v>1575504000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2387,17 +2385,19 @@
       <c r="H55" t="n">
         <v>0.16</v>
       </c>
-      <c r="I55" t="n">
-        <v>30000</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1575849600</v>
+        <v>1575590400</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2422,19 +2422,17 @@
       <c r="H56" t="n">
         <v>0.16</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I56" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1575936000</v>
+        <v>1575849600</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2467,11 +2465,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1576022400</v>
+        <v>1575936000</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2504,11 +2502,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1576108800</v>
+        <v>1576022400</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2541,11 +2539,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1576195200</v>
+        <v>1576108800</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2578,11 +2576,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1576454400</v>
+        <v>1576195200</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2615,11 +2613,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1576540800</v>
+        <v>1576454400</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2652,11 +2650,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1576627200</v>
+        <v>1576540800</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2689,11 +2687,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1576713600</v>
+        <v>1576627200</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2726,11 +2724,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1576800000</v>
+        <v>1576713600</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2763,11 +2761,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1577059200</v>
+        <v>1576800000</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2800,11 +2798,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1577145600</v>
+        <v>1577059200</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2837,11 +2835,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1577318400</v>
+        <v>1577145600</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2874,11 +2872,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1577404800</v>
+        <v>1577318400</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2911,11 +2909,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1577664000</v>
+        <v>1577404800</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2948,11 +2946,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1577750400</v>
+        <v>1577664000</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2985,11 +2983,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1577923200</v>
+        <v>1577750400</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3022,11 +3020,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1578009600</v>
+        <v>1577923200</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3059,11 +3057,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1578268800</v>
+        <v>1578009600</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3096,11 +3094,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1578355200</v>
+        <v>1578268800</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3133,11 +3131,11 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1578441600</v>
+        <v>1578355200</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3162,17 +3160,19 @@
       <c r="H76" t="n">
         <v>0.16</v>
       </c>
-      <c r="I76" t="n">
-        <v>10000</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1578528000</v>
+        <v>1578441600</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3197,19 +3197,17 @@
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I77" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1578614400</v>
+        <v>1578528000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3242,11 +3240,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1578873600</v>
+        <v>1578614400</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3279,11 +3277,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1578960000</v>
+        <v>1578873600</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3316,11 +3314,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1579046400</v>
+        <v>1578960000</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3353,11 +3351,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1579132800</v>
+        <v>1579046400</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3390,11 +3388,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1579219200</v>
+        <v>1579132800</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3427,11 +3425,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1579478400</v>
+        <v>1579219200</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3464,11 +3462,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1579564800</v>
+        <v>1579478400</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3501,11 +3499,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1579651200</v>
+        <v>1579564800</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3538,11 +3536,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1579737600</v>
+        <v>1579651200</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3575,11 +3573,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1579824000</v>
+        <v>1579737600</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3593,28 +3591,30 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="F88" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="G88" t="n">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
       <c r="H88" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="I88" t="n">
-        <v>30000</v>
+        <v>0.16</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1580169600</v>
+        <v>1579824000</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3639,19 +3639,17 @@
       <c r="H89" t="n">
         <v>0.165</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I89" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1580256000</v>
+        <v>1580169600</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3684,11 +3682,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1580342400</v>
+        <v>1580256000</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3721,11 +3719,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1580428800</v>
+        <v>1580342400</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3758,11 +3756,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1580688000</v>
+        <v>1580428800</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3795,11 +3793,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1580774400</v>
+        <v>1580688000</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3832,11 +3830,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1580860800</v>
+        <v>1580774400</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3869,11 +3867,11 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1580947200</v>
+        <v>1580860800</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3906,11 +3904,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1581033600</v>
+        <v>1580947200</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3943,11 +3941,11 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1581292800</v>
+        <v>1581033600</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3980,11 +3978,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1581379200</v>
+        <v>1581292800</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4017,11 +4015,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1581465600</v>
+        <v>1581379200</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4054,11 +4052,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1581552000</v>
+        <v>1581465600</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4091,11 +4089,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1581638400</v>
+        <v>1581552000</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4128,11 +4126,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1581897600</v>
+        <v>1581638400</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4165,11 +4163,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1581984000</v>
+        <v>1581897600</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4202,11 +4200,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1582070400</v>
+        <v>1581984000</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4239,11 +4237,11 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1582156800</v>
+        <v>1582070400</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4276,11 +4274,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1582243200</v>
+        <v>1582156800</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4313,11 +4311,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1582502400</v>
+        <v>1582243200</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4350,11 +4348,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1582588800</v>
+        <v>1582502400</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4387,11 +4385,11 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1582675200</v>
+        <v>1582588800</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4424,11 +4422,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1582761600</v>
+        <v>1582675200</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4461,11 +4459,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1582848000</v>
+        <v>1582761600</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4498,11 +4496,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1583107200</v>
+        <v>1582848000</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4535,11 +4533,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1583193600</v>
+        <v>1583107200</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4572,11 +4570,11 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1583280000</v>
+        <v>1583193600</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4609,11 +4607,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1583366400</v>
+        <v>1583280000</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4646,11 +4644,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1583452800</v>
+        <v>1583366400</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4683,11 +4681,11 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1583712000</v>
+        <v>1583452800</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4720,11 +4718,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1583798400</v>
+        <v>1583712000</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4757,11 +4755,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1583884800</v>
+        <v>1583798400</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4794,11 +4792,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1583971200</v>
+        <v>1583884800</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4831,36 +4829,73 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>03027</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>MMIS</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="I122" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4901,6 +4901,43 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4938,6 +4938,43 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,6 +4975,43 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5012,6 +5012,43 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5049,6 +5049,43 @@
         </is>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5086,6 +5086,43 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5123,6 +5123,43 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5160,6 +5160,43 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5197,6 +5197,43 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5234,6 +5234,41 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I133" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5269,6 +5269,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,6 +5306,43 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5343,6 +5343,43 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5380,6 +5380,43 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5417,6 +5417,43 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5454,6 +5454,43 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5491,6 +5491,43 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5528,6 +5528,43 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5565,6 +5565,43 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5602,6 +5602,43 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5639,6 +5639,43 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5676,6 +5676,43 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5713,6 +5713,43 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5750,6 +5750,43 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5787,6 +5787,43 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5824,6 +5824,80 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5898,6 +5898,43 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5935,6 +5935,117 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6046,6 +6046,43 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6083,6 +6083,43 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03027.xlsx
+++ b/data/03027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6120,6 +6120,117 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>03027</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MMIS</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
